--- a/Tram moi/Linh kien trong nuoc.xlsx
+++ b/Tram moi/Linh kien trong nuoc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>RY12W-K</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Con2 (5.08)</t>
-  </si>
-  <si>
-    <t>CON 8 2EDG5.08-8P 5.08MM (Xanh Cong)</t>
   </si>
   <si>
     <t>Jum đôi cái</t>
@@ -458,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,40 +523,40 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -570,7 +567,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -581,29 +578,29 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -614,42 +611,42 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>96</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>144</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
@@ -658,29 +655,29 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -691,111 +688,100 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>216</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1">
         <v>52</v>
       </c>
     </row>
